--- a/mid_result.xlsx
+++ b/mid_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -471,14 +471,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['KR20090053183', 'US9338200']</t>
+          <t>['KR20090053183']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -492,14 +492,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['KR102474653', 'KR20210151713']</t>
+          <t>['KR20210151713']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -513,14 +513,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['KR101923723', 'KR102394158']</t>
+          <t>['KR101923723']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -534,14 +534,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['US20150128062', 'WO2022131602', 'KR20180054377', 'JP2010097465']</t>
+          <t>['JP2010097465', 'KR20180054377', 'US20150128062']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -555,14 +555,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['KR20220146298', 'KR20130068593']</t>
+          <t>['KR20130068593']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -576,14 +576,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['KR101923723', 'KR102376390']</t>
+          <t>['KR101923723']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -597,14 +597,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['KR102424123', 'KR102376390']</t>
+          <t>['KR102376390']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -618,14 +618,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102420840']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -639,14 +639,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['US9875580', 'US20080147424']</t>
+          <t>['US20080147424']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102441662']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -681,14 +681,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['KR20210063284', 'KR102432524']</t>
+          <t>['KR20210063284']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -702,14 +702,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['US8230045', 'US20090228550']</t>
+          <t>['US20090228550']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -723,14 +723,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['US9808722', 'US20090228550']</t>
+          <t>['US20090228550']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -744,14 +744,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['KR102411058', 'KR102462139']</t>
+          <t>['KR102411058']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -765,14 +765,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['KR20120003588', 'KR102317223']</t>
+          <t>['KR20120003588']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -786,14 +786,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['KR102341866', 'KR102469274']</t>
+          <t>['KR102341866']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -807,14 +807,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['US20110113382', 'US20080147424']</t>
+          <t>['US20080147424']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -828,14 +828,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['KR20210063284', 'KR20120003588', 'KR102388442']</t>
+          <t>['KR20120003588', 'KR20210063284']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -849,14 +849,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102415719']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -870,14 +870,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102445135', 'KR102343582']</t>
+          <t>['KR20140036555', 'KR102343582']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -891,14 +891,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['US8893047', 'US20080147424']</t>
+          <t>['US20080147424']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -912,14 +912,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['KR102461267', 'KR102343582']</t>
+          <t>['KR102343582']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -933,14 +933,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['WO2022225101', 'KR20120003588']</t>
+          <t>['KR20120003588']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -954,14 +954,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['US20090228550']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -975,14 +975,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['KR102412142', 'KR102455172']</t>
+          <t>['KR102412142']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -996,14 +996,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['KR102412142', 'KR20130068593']</t>
+          <t>['KR20130068593']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1017,14 +1017,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102445133', 'KR102343582']</t>
+          <t>['KR20140036555', 'KR102343582']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1038,14 +1038,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102456160']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1059,14 +1059,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102368616']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1080,14 +1080,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['KR101923723', 'KR102402580']</t>
+          <t>['KR101923723']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1101,14 +1101,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['KR101923723', 'KR102447171']</t>
+          <t>['KR101923723']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1122,14 +1122,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['KR102423623', 'KR20120003588']</t>
+          <t>['KR20120003588']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1143,14 +1143,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['KR20090053183', 'KR20220156352']</t>
+          <t>['KR20090053183']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1164,14 +1164,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['KR20130131179', 'KR102442042']</t>
+          <t>['KR20130131179']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1185,14 +1185,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['KR102440745', 'KR20110007419']</t>
+          <t>['KR20110007419']</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1206,14 +1206,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['KR20120003588', 'KR102445543']</t>
+          <t>['KR20120003588']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1227,14 +1227,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['KR20210151713', 'KR102461333']</t>
+          <t>['KR20210151713']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1248,14 +1248,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['KR100905407', 'KR102404585']</t>
+          <t>['KR100905407']</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1269,14 +1269,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['KR102439122', 'KR101923723', 'KR102343582']</t>
+          <t>['KR102343582', 'KR101923723']</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1290,14 +1290,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['KR20090053183', 'KR102476830']</t>
+          <t>['KR20090053183']</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1311,14 +1311,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['KR20210063284', 'KR102398366']</t>
+          <t>['KR20210063284']</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1332,14 +1332,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102450736', 'KR20120003588']</t>
+          <t>['KR20120003588', 'KR20140036555']</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1353,14 +1353,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['KR20120060597', 'KR102458225', 'KR102404585']</t>
+          <t>['KR20120060597', 'KR102404585']</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1374,14 +1374,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['KR101923723', 'KR102434060']</t>
+          <t>['KR101923723']</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1395,14 +1395,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['KR102447516', 'KR102388442', 'KR102407595']</t>
+          <t>['KR102388442', 'KR102407595']</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1416,14 +1416,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['US9480928', 'US20110014985', 'KR20110007419']</t>
+          <t>['KR20110007419', 'US20110014985']</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['US20110231434', 'US20110231433']</t>
+          <t>['US20110231434']</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['JP2011217352', 'JP2009217387']</t>
+          <t>['JP2009217387']</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1479,14 +1479,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['KR102421159', 'KR20110007419']</t>
+          <t>['KR20110007419']</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1500,14 +1500,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102456158']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1521,14 +1521,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102461485']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1542,14 +1542,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102388735']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1563,14 +1563,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['KR102423080', 'KR20210063284']</t>
+          <t>['KR20210063284']</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['KR102433844', 'KR20210063284']</t>
+          <t>['KR20210063284']</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1605,14 +1605,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['US20180104595', 'US10981069', 'JP5159375', 'US9808722', 'US20090228550', 'US8113959', 'US8230045', 'US20070218987']</t>
+          <t>['US8230045', 'US8113959', 'US20180104595', 'US9808722', 'US20070218987', 'JP5159375', 'US20090228550']</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1626,14 +1626,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['KR102445134', 'KR20140036555', 'KR102343582']</t>
+          <t>['KR20140036555', 'KR102343582']</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>287</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1647,10 +1647,452 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['KR102428990', 'KR20130068593']</t>
+          <t>['KR20130068593']</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>KR20090053183</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2009-05-27</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>KR20210151713</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>KR101923723</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2018-11-29</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>JP2010097465</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2010-04-30</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>KR20180054377</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2018-05-24</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>US20150128062</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2015-05-07</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>KR20130068593</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2013-06-26</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>KR20140036555</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2014-03-26</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>US20080147424</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2008-06-19</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>KR20210063284</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2021-06-01</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>KR102411058</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>KR20120003588</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2012-01-11</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>KR102341866</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>KR102343582</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2021-12-29</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>KR20130131179</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2013-12-03</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>KR20110007419</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2011-01-24</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>KR100905407</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2009-07-01</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>KR20120060597</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2012-06-12</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>KR102407595</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2022-06-10</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>US20110014985</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2011-01-20</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>US20110231434</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2011-09-22</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>JP2009217387</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2009-09-24</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>US8113959</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2012-02-14</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>US20180104595</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2018-04-19</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>US20070218987</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2007-09-20</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>JP5159375</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2013-03-06</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
